--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.91334466666666</v>
+        <v>10.61535666666667</v>
       </c>
       <c r="H2">
-        <v>185.740034</v>
+        <v>31.84607</v>
       </c>
       <c r="I2">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="J2">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>91.67302333333333</v>
+        <v>4.230734666666667</v>
       </c>
       <c r="N2">
-        <v>275.01907</v>
+        <v>12.692204</v>
       </c>
       <c r="O2">
-        <v>0.8966431814716052</v>
+        <v>0.3081346507358854</v>
       </c>
       <c r="P2">
-        <v>0.896643181471605</v>
+        <v>0.3081346507358855</v>
       </c>
       <c r="Q2">
-        <v>5675.783490272041</v>
+        <v>44.91075744869778</v>
       </c>
       <c r="R2">
-        <v>51082.05141244837</v>
+        <v>404.19681703828</v>
       </c>
       <c r="S2">
-        <v>0.4501892480192734</v>
+        <v>0.04430873187058883</v>
       </c>
       <c r="T2">
-        <v>0.4501892480192733</v>
+        <v>0.04430873187058884</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.91334466666666</v>
+        <v>10.61535666666667</v>
       </c>
       <c r="H3">
-        <v>185.740034</v>
+        <v>31.84607</v>
       </c>
       <c r="I3">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="J3">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>25.645158</v>
       </c>
       <c r="O3">
-        <v>0.08361076945850333</v>
+        <v>0.6225996527787135</v>
       </c>
       <c r="P3">
-        <v>0.08361076945850332</v>
+        <v>0.6225996527787135</v>
       </c>
       <c r="Q3">
-        <v>529.259168761708</v>
+        <v>90.74416631434001</v>
       </c>
       <c r="R3">
-        <v>4763.332518855372</v>
+        <v>816.6974968290601</v>
       </c>
       <c r="S3">
-        <v>0.04197954125637707</v>
+        <v>0.0895277470800884</v>
       </c>
       <c r="T3">
-        <v>0.04197954125637707</v>
+        <v>0.0895277470800884</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.91334466666666</v>
+        <v>10.61535666666667</v>
       </c>
       <c r="H4">
-        <v>185.740034</v>
+        <v>31.84607</v>
       </c>
       <c r="I4">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="J4">
-        <v>0.5020829437194911</v>
+        <v>0.1437966543677284</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.018841</v>
+        <v>0.9510283333333334</v>
       </c>
       <c r="N4">
-        <v>6.056523</v>
+        <v>2.853085</v>
       </c>
       <c r="O4">
-        <v>0.01974604906989159</v>
+        <v>0.0692656964854011</v>
       </c>
       <c r="P4">
-        <v>0.01974604906989159</v>
+        <v>0.0692656964854011</v>
       </c>
       <c r="Q4">
-        <v>124.993198660198</v>
+        <v>10.09550495843889</v>
       </c>
       <c r="R4">
-        <v>1124.938787941782</v>
+        <v>90.85954462595001</v>
       </c>
       <c r="S4">
-        <v>0.009914154443840691</v>
+        <v>0.009960175417051203</v>
       </c>
       <c r="T4">
-        <v>0.00991415444384069</v>
+        <v>0.009960175417051203</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>150.283303</v>
       </c>
       <c r="I5">
-        <v>0.4062381250674705</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="J5">
-        <v>0.4062381250674706</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>91.67302333333333</v>
+        <v>4.230734666666667</v>
       </c>
       <c r="N5">
-        <v>275.01907</v>
+        <v>12.692204</v>
       </c>
       <c r="O5">
-        <v>0.8966431814716052</v>
+        <v>0.3081346507358854</v>
       </c>
       <c r="P5">
-        <v>0.896643181471605</v>
+        <v>0.3081346507358855</v>
       </c>
       <c r="Q5">
-        <v>4592.308247509801</v>
+        <v>211.9362599410902</v>
       </c>
       <c r="R5">
-        <v>41330.7742275882</v>
+        <v>1907.426339469812</v>
       </c>
       <c r="S5">
-        <v>0.3642506448955566</v>
+        <v>0.2090952691259379</v>
       </c>
       <c r="T5">
-        <v>0.3642506448955566</v>
+        <v>0.209095269125938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>150.283303</v>
       </c>
       <c r="I6">
-        <v>0.4062381250674705</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="J6">
-        <v>0.4062381250674706</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>25.645158</v>
       </c>
       <c r="O6">
-        <v>0.08361076945850333</v>
+        <v>0.6225996527787135</v>
       </c>
       <c r="P6">
-        <v>0.08361076945850332</v>
+        <v>0.6225996527787135</v>
       </c>
       <c r="Q6">
         <v>428.226561132986</v>
@@ -818,10 +818,10 @@
         <v>3854.039050196874</v>
       </c>
       <c r="S6">
-        <v>0.03396588222027092</v>
+        <v>0.4224862138827268</v>
       </c>
       <c r="T6">
-        <v>0.03396588222027092</v>
+        <v>0.4224862138827268</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>150.283303</v>
       </c>
       <c r="I7">
-        <v>0.4062381250674705</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="J7">
-        <v>0.4062381250674706</v>
+        <v>0.6785840820776819</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.018841</v>
+        <v>0.9510283333333334</v>
       </c>
       <c r="N7">
-        <v>6.056523</v>
+        <v>2.853085</v>
       </c>
       <c r="O7">
-        <v>0.01974604906989159</v>
+        <v>0.0692656964854011</v>
       </c>
       <c r="P7">
-        <v>0.01974604906989159</v>
+        <v>0.0692656964854011</v>
       </c>
       <c r="Q7">
-        <v>101.132697903941</v>
+        <v>47.64122639330611</v>
       </c>
       <c r="R7">
-        <v>910.1942811354689</v>
+        <v>428.771037539755</v>
       </c>
       <c r="S7">
-        <v>0.008021597951643032</v>
+        <v>0.04700259906901722</v>
       </c>
       <c r="T7">
-        <v>0.008021597951643032</v>
+        <v>0.04700259906901722</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.30520233333333</v>
+        <v>13.11220933333333</v>
       </c>
       <c r="H8">
-        <v>33.915607</v>
+        <v>39.336628</v>
       </c>
       <c r="I8">
-        <v>0.09167893121303822</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="J8">
-        <v>0.09167893121303823</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.67302333333333</v>
+        <v>4.230734666666667</v>
       </c>
       <c r="N8">
-        <v>275.01907</v>
+        <v>12.692204</v>
       </c>
       <c r="O8">
-        <v>0.8966431814716052</v>
+        <v>0.3081346507358854</v>
       </c>
       <c r="P8">
-        <v>0.896643181471605</v>
+        <v>0.3081346507358855</v>
       </c>
       <c r="Q8">
-        <v>1036.382077291721</v>
+        <v>55.47427858312356</v>
       </c>
       <c r="R8">
-        <v>9327.438695625491</v>
+        <v>499.2685072481121</v>
       </c>
       <c r="S8">
-        <v>0.08220328855677503</v>
+        <v>0.05473064973935865</v>
       </c>
       <c r="T8">
-        <v>0.08220328855677503</v>
+        <v>0.05473064973935866</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.30520233333333</v>
+        <v>13.11220933333333</v>
       </c>
       <c r="H9">
-        <v>33.915607</v>
+        <v>39.336628</v>
       </c>
       <c r="I9">
-        <v>0.09167893121303822</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="J9">
-        <v>0.09167893121303823</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>25.645158</v>
       </c>
       <c r="O9">
-        <v>0.08361076945850333</v>
+        <v>0.6225996527787135</v>
       </c>
       <c r="P9">
-        <v>0.08361076945850332</v>
+        <v>0.6225996527787135</v>
       </c>
       <c r="Q9">
-        <v>96.64123335343402</v>
+        <v>112.088226694136</v>
       </c>
       <c r="R9">
-        <v>869.7711001809062</v>
+        <v>1008.794040247224</v>
       </c>
       <c r="S9">
-        <v>0.007665345981855324</v>
+        <v>0.1105856918158983</v>
       </c>
       <c r="T9">
-        <v>0.007665345981855324</v>
+        <v>0.1105856918158983</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.30520233333333</v>
+        <v>13.11220933333333</v>
       </c>
       <c r="H10">
-        <v>33.915607</v>
+        <v>39.336628</v>
       </c>
       <c r="I10">
-        <v>0.09167893121303822</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="J10">
-        <v>0.09167893121303823</v>
+        <v>0.1776192635545896</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.018841</v>
+        <v>0.9510283333333334</v>
       </c>
       <c r="N10">
-        <v>6.056523</v>
+        <v>2.853085</v>
       </c>
       <c r="O10">
-        <v>0.01974604906989159</v>
+        <v>0.0692656964854011</v>
       </c>
       <c r="P10">
-        <v>0.01974604906989159</v>
+        <v>0.0692656964854011</v>
       </c>
       <c r="Q10">
-        <v>22.823405983829</v>
+        <v>12.47008258859778</v>
       </c>
       <c r="R10">
-        <v>205.410653854461</v>
+        <v>112.23074329738</v>
       </c>
       <c r="S10">
-        <v>0.001810296674407869</v>
+        <v>0.01230292199933267</v>
       </c>
       <c r="T10">
-        <v>0.001810296674407869</v>
+        <v>0.01230292199933267</v>
       </c>
     </row>
   </sheetData>
